--- a/Structure/1 - Whole System/EnBalanceDataTWh.xlsx
+++ b/Structure/1 - Whole System/EnBalanceDataTWh.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ische\GitHub\Scottish-Energy-Statistics-Hub\Structure\1 - Whole System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Energy Stats\Documents\Github\Scottish-Energy-Statistics-Hub\Structure\1 - Whole System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19BCFA4-5DB7-4370-8D54-1363111E6FB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E14D1F2-AFAF-4123-B617-8C82BB7F5DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15460" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77BAC818-DF8C-46E9-B076-3CA836B62C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="36">
   <si>
     <t>Gross calorific values</t>
   </si>
@@ -132,7 +132,7 @@
     <t>TWh</t>
   </si>
   <si>
-    <t>Aggregate energy balance (TWh), Scotland, 2019</t>
+    <t>Aggregate energy balance (TWh), Scotland, 2020</t>
   </si>
 </sst>
 </file>
@@ -587,23 +587,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E34935-EB74-4926-BE8C-7B40FCC27029}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:J28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" customWidth="1"/>
-    <col min="4" max="4" width="21.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" customWidth="1"/>
-    <col min="7" max="7" width="20.54296875" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
-    <col min="9" max="9" width="30.54296875" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -617,7 +619,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -633,7 +635,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
@@ -663,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -677,27 +679,27 @@
       <c r="I4" s="13"/>
       <c r="J4" s="14"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="16">
-        <v>3.1168400000000003</v>
+        <v>1.2037494444444443</v>
       </c>
       <c r="C5" s="16">
-        <v>626.63603000000012</v>
+        <v>591.7761430531624</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="16">
-        <v>231.83242000000004</v>
+        <v>309.01599426927805</v>
       </c>
       <c r="F5" s="16">
-        <v>8.8620600000000014</v>
+        <v>9.7571712433803448</v>
       </c>
       <c r="G5" s="16">
-        <v>61.592480000000009</v>
+        <v>66.254572620027801</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>12</v>
@@ -706,42 +708,42 @@
         <v>12</v>
       </c>
       <c r="J5" s="16">
-        <v>932.03983000000017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>978.00763063029308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="16">
-        <v>0</v>
+        <v>2.8885E-8</v>
       </c>
       <c r="C6" s="16">
-        <v>82.607890000000012</v>
+        <v>64.141538701745233</v>
       </c>
       <c r="D6" s="16">
-        <v>29.295970000000004</v>
+        <v>26.736228675993789</v>
       </c>
       <c r="E6" s="16">
-        <v>110.45011000000001</v>
+        <v>98.067854280000532</v>
       </c>
       <c r="F6" s="16">
-        <v>3.6983400000000004</v>
+        <v>4.6157617788938996</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="16">
-        <v>1.2444100000000002</v>
+        <v>0.31005050000000167</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="16">
-        <v>227.29672000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>193.87143396551843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -749,13 +751,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="16">
-        <v>82.607890000000012</v>
+        <v>64.141538701745233</v>
       </c>
       <c r="D7" s="16">
-        <v>20.934000000000001</v>
+        <v>20.435142217969013</v>
       </c>
       <c r="E7" s="16">
-        <v>110.00817000000001</v>
+        <v>97.62846000000053</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>12</v>
@@ -773,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -784,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="16">
-        <v>8.3619700000000012</v>
+        <v>6.3010864580247761</v>
       </c>
       <c r="E8" s="16">
-        <v>0.44194000000000006</v>
+        <v>0.43939428000000236</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>12</v>
@@ -796,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="16">
-        <v>1.2444100000000002</v>
+        <v>0.31005050000000167</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>12</v>
@@ -805,39 +807,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <v>-1.7096100000000003</v>
+        <v>-0.51292747332944433</v>
       </c>
       <c r="C9" s="16">
-        <v>-582.63974000000007</v>
+        <v>-543.54088713888029</v>
       </c>
       <c r="D9" s="16">
-        <v>-58.882690000000011</v>
+        <v>-66.561206778064687</v>
       </c>
       <c r="E9" s="16">
-        <v>-235.05393000000004</v>
+        <v>-300.63153213483241</v>
       </c>
       <c r="F9" s="16">
-        <v>-0.27912000000000003</v>
+        <v>-0.36825556366635159</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="16">
-        <v>-17.096100000000003</v>
+        <v>-19.360352000000102</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J9" s="16">
-        <v>-895.66119000000015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-930.97516108877312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -845,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="16">
-        <v>-438.45100000000008</v>
+        <v>-347.5691881569627</v>
       </c>
       <c r="D10" s="16">
-        <v>-37.646310000000007</v>
+        <v>-33.971029685982089</v>
       </c>
       <c r="E10" s="16">
-        <v>-31.121880000000004</v>
+        <v>-37.951460000000203</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>12</v>
@@ -869,7 +871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -877,13 +879,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="16">
-        <v>-144.20037000000002</v>
+        <v>-195.97169898191757</v>
       </c>
       <c r="D11" s="16">
-        <v>-21.236380000000004</v>
+        <v>-32.590177092082598</v>
       </c>
       <c r="E11" s="16">
-        <v>-203.93205000000003</v>
+        <v>-262.68007213483219</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>12</v>
@@ -892,7 +894,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="16">
-        <v>-17.096100000000003</v>
+        <v>-19.360352000000102</v>
       </c>
       <c r="I11" s="16" t="s">
         <v>12</v>
@@ -901,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -912,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="16">
-        <v>-11.141540000000001</v>
+        <v>-8.3611000507552564</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>12</v>
@@ -930,21 +932,21 @@
         <v>12</v>
       </c>
       <c r="J12" s="16">
-        <v>-11.141540000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-8.3611000507552564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="16">
-        <v>0</v>
+      <c r="B13" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="16">
-        <v>-0.16282000000000002</v>
+        <v>0.29502403382618653</v>
       </c>
       <c r="D13" s="16">
-        <v>-1.1281100000000002</v>
+        <v>-1.0583821616289515</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>12</v>
@@ -962,42 +964,42 @@
         <v>12</v>
       </c>
       <c r="J13" s="16">
-        <v>-1.2909300000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-0.76335812780276502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="16">
-        <v>1.4188600000000002</v>
+        <v>0.69082199999999994</v>
       </c>
       <c r="C14" s="16">
-        <v>126.42973000000002</v>
+        <v>112.67181864985355</v>
       </c>
       <c r="D14" s="16">
-        <v>-41.856370000000005</v>
+        <v>-49.244460314455104</v>
       </c>
       <c r="E14" s="16">
-        <v>107.22860000000001</v>
+        <v>106.45231641444619</v>
       </c>
       <c r="F14" s="16">
-        <v>12.292910000000001</v>
+        <v>14</v>
       </c>
       <c r="G14" s="16">
-        <v>61.592480000000009</v>
+        <v>66.254572620027801</v>
       </c>
       <c r="H14" s="16">
-        <v>-15.851690000000001</v>
+        <v>-19.050301500000099</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="16">
-        <v>251.24289000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>231.768688347135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1008,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="16">
-        <v>-3.4890000000000004E-2</v>
+        <v>-2.1938638946023385E-2</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
@@ -1020,48 +1022,48 @@
         <v>12</v>
       </c>
       <c r="H15" s="16">
-        <v>0</v>
+        <v>-0.29640800000001122</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J15" s="16">
-        <v>-3.4890000000000004E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-0.3183466389460346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="16">
-        <v>1.4188600000000002</v>
+        <v>0.69082199999999994</v>
       </c>
       <c r="C16" s="16">
-        <v>126.42973000000002</v>
+        <v>112.67181864985352</v>
       </c>
       <c r="D16" s="16">
-        <v>-41.891260000000003</v>
+        <v>-49.266398953401129</v>
       </c>
       <c r="E16" s="16">
-        <v>107.22860000000001</v>
+        <v>106.45231641444619</v>
       </c>
       <c r="F16" s="16">
-        <v>12.292910000000001</v>
+        <v>13.9939204772627</v>
       </c>
       <c r="G16" s="16">
-        <v>61.592480000000009</v>
+        <v>66.254572620027801</v>
       </c>
       <c r="H16" s="16">
-        <v>-15.851690000000001</v>
+        <v>-19.346709500000113</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J16" s="16">
-        <v>251.20800000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+        <v>231.45034170818889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1069,10 +1071,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="16">
-        <v>-12.502250000000002</v>
+        <v>-18.882239813897893</v>
       </c>
       <c r="D17" s="16">
-        <v>12.502250000000002</v>
+        <v>18.882239813897893</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>12</v>
@@ -1081,10 +1083,10 @@
         <v>12</v>
       </c>
       <c r="G17" s="16">
-        <v>-28.051560000000002</v>
+        <v>-29.625960000000163</v>
       </c>
       <c r="H17" s="16">
-        <v>28.051560000000002</v>
+        <v>29.625960000000163</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>12</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1101,31 +1103,31 @@
         <v>0</v>
       </c>
       <c r="C18" s="16">
-        <v>-113.92748000000002</v>
+        <v>-93.789578835955624</v>
       </c>
       <c r="D18" s="16">
-        <v>111.54333000000001</v>
+        <v>91.883554306794622</v>
       </c>
       <c r="E18" s="16">
-        <v>-14.339790000000002</v>
+        <v>-13.258982610684281</v>
       </c>
       <c r="F18" s="16">
-        <v>-7.2106000000000012</v>
+        <v>-7.1003408595335111</v>
       </c>
       <c r="G18" s="16">
-        <v>-33.540920000000007</v>
+        <v>-36.628612620027624</v>
       </c>
       <c r="H18" s="16">
-        <v>21.922550000000001</v>
+        <v>22.238710600000122</v>
       </c>
       <c r="I18" s="16">
-        <v>1.3956000000000002</v>
+        <v>1.4003986882265749</v>
       </c>
       <c r="J18" s="16">
-        <v>-34.157310000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-35.254851331179722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
@@ -1136,28 +1138,28 @@
         <v>12</v>
       </c>
       <c r="D19" s="16">
-        <v>-0.67454000000000014</v>
+        <v>-0.71685583509113737</v>
       </c>
       <c r="E19" s="16">
-        <v>-12.385950000000001</v>
+        <v>-11.264182139859761</v>
       </c>
       <c r="F19" s="16">
-        <v>-7.0594100000000006</v>
+        <v>-6.9636000000000395</v>
       </c>
       <c r="G19" s="16">
-        <v>-33.540920000000007</v>
+        <v>-36.628612620027624</v>
       </c>
       <c r="H19" s="16">
-        <v>21.922550000000001</v>
+        <v>22.238710600000122</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J19" s="16">
-        <v>-31.749900000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-33.334539994978442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -1165,10 +1167,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="16">
-        <v>-113.92748000000002</v>
+        <v>-93.789578835955624</v>
       </c>
       <c r="D20" s="16">
-        <v>112.92730000000002</v>
+        <v>93.320947383544748</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>12</v>
@@ -1186,10 +1188,10 @@
         <v>12</v>
       </c>
       <c r="J20" s="16">
-        <v>-1.0001800000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-0.46863145241088577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
@@ -1200,13 +1202,13 @@
         <v>12</v>
       </c>
       <c r="D21" s="16">
-        <v>-0.70943000000000012</v>
+        <v>-0.7205372416589777</v>
       </c>
       <c r="E21" s="16">
-        <v>-1.9422100000000002</v>
+        <v>-1.9948004708245208</v>
       </c>
       <c r="F21" s="16">
-        <v>-0.15119000000000002</v>
+        <v>-0.13674085953347126</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>12</v>
@@ -1215,13 +1217,13 @@
         <v>12</v>
       </c>
       <c r="I21" s="16">
-        <v>1.3956000000000002</v>
+        <v>1.4003986882265749</v>
       </c>
       <c r="J21" s="16">
-        <v>-1.4072300000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+        <v>-1.4516798837903948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1232,10 +1234,10 @@
         <v>12</v>
       </c>
       <c r="D22" s="16">
-        <v>6.6174700000000009</v>
+        <v>5.3107960517054762</v>
       </c>
       <c r="E22" s="16">
-        <v>44.589420000000004</v>
+        <v>47.597634201148544</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>12</v>
@@ -1244,48 +1246,48 @@
         <v>12</v>
       </c>
       <c r="H22" s="16">
-        <v>4.733410000000001</v>
+        <v>4.5387380000000244</v>
       </c>
       <c r="I22" s="16">
-        <v>0.26749000000000001</v>
+        <v>1.1102001221140567</v>
       </c>
       <c r="J22" s="16">
-        <v>56.20779000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+        <v>58.5573683749681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="16">
-        <v>1.4188600000000002</v>
+        <v>0.69082199999999994</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="16">
-        <v>75.548480000000012</v>
+        <v>56.188599115585916</v>
       </c>
       <c r="E23" s="16">
-        <v>48.299390000000002</v>
+        <v>45.595699602613351</v>
       </c>
       <c r="F23" s="16">
-        <v>5.0706800000000003</v>
+        <v>6.8935796177291868</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="16">
-        <v>29.377380000000002</v>
+        <v>27.979223100000151</v>
       </c>
       <c r="I23" s="16">
-        <v>1.1397400000000002</v>
+        <v>0.29019856611251815</v>
       </c>
       <c r="J23" s="16">
-        <v>160.85453000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+        <v>137.63812200204111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
@@ -1296,10 +1298,10 @@
         <v>12</v>
       </c>
       <c r="D24" s="16">
-        <v>11.792820000000001</v>
-      </c>
-      <c r="E24" s="16">
-        <v>0.66291000000000011</v>
+        <v>10.829882796580714</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="F24" s="16" t="s">
         <v>12</v>
@@ -1311,138 +1313,138 @@
         <v>12</v>
       </c>
       <c r="I24" s="16">
-        <v>0.70943000000000012</v>
+        <v>0.10305967552516154</v>
       </c>
       <c r="J24" s="16">
-        <v>13.176790000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+        <v>10.932942472105875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="16">
-        <v>0.88388000000000011</v>
+        <v>0.55144882304513931</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="16">
-        <v>2.1282900000000002</v>
+        <v>2.2057456686916108</v>
       </c>
       <c r="E25" s="16">
-        <v>10.152990000000001</v>
+        <v>9.5919733078606253</v>
       </c>
       <c r="F25" s="16">
-        <v>1.0118100000000001</v>
+        <v>1.9361324013713883</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="16">
-        <v>8.350340000000001</v>
+        <v>5.9999906793091791</v>
       </c>
       <c r="I25" s="16">
-        <v>0.11630000000000001</v>
+        <v>1.2388085276153772E-2</v>
       </c>
       <c r="J25" s="16">
-        <v>22.643610000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>20.297678965554095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="16">
-        <v>0.50009000000000003</v>
+        <v>0.10200638510704045</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="16">
-        <v>3.1168400000000003</v>
+        <v>2.9667514750882971</v>
       </c>
       <c r="E26" s="16">
-        <v>27.539840000000005</v>
+        <v>26.099575149997474</v>
       </c>
       <c r="F26" s="16">
-        <v>1.6979800000000003</v>
+        <v>1.1830286749320553</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="16">
-        <v>11.920750000000002</v>
+        <v>15.616851717252692</v>
       </c>
       <c r="I26" s="16">
-        <v>0.30238000000000004</v>
+        <v>0.17475080531120354</v>
       </c>
       <c r="J26" s="16">
-        <v>45.089510000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+        <v>46.142964207688756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="16">
-        <v>0</v>
+        <v>3.737234048545356E-3</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="16">
-        <v>52.300110000000004</v>
+        <v>35.475588104941615</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="16">
-        <v>1.3490800000000003</v>
+        <v>2.0522267728707111</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="16">
-        <v>0.50009000000000003</v>
+        <v>0.38372915781556438</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J27" s="16">
-        <v>54.149280000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+        <v>37.915281269676427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="16">
-        <v>2.3260000000000003E-2</v>
+        <v>1.4040945697183583E-2</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="16">
-        <v>6.2104200000000009</v>
+        <v>4.7106310702836884</v>
       </c>
       <c r="E28" s="16">
-        <v>9.9436500000000017</v>
+        <v>9.2556528359317181</v>
       </c>
       <c r="F28" s="16">
-        <v>1.0118100000000001</v>
+        <v>1.7221917685550323</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="H28" s="16">
-        <v>8.6062000000000012</v>
+        <v>5.9786515456227152</v>
       </c>
       <c r="I28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="J28" s="16">
-        <v>25.795340000000003</v>
+        <v>21.681168166090337</v>
       </c>
     </row>
   </sheetData>
